--- a/biology/Médecine/Microphotographie/Microphotographie.xlsx
+++ b/biology/Médecine/Microphotographie/Microphotographie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La microphotographie, inventée par René Dagron, consiste à réaliser des images de très petite taille (1 mm de diamètre), avec toute la technologie nécessaire. Les applications de la microphotographie vont de l'espionnage, comme dans le cas de William Fischer, jusqu'à la fabrication de souvenirs.
 Les microfiches sont une application importante de la microphotographie, mais avec beaucoup moins de réduction (une microfiche a un diamètre de quelques centimètres, contre 1 mm de diamètre pour une microphotographie).
